--- a/doors-detector/results/house22_experimentk_CriterionType.MIN_0.75.xlsx
+++ b/doors-detector/results/house22_experimentk_CriterionType.MIN_0.75.xlsx
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.706176597474807</v>
+        <v>0.7028177018700068</v>
       </c>
       <c r="F5" t="n">
         <v>1320</v>
       </c>
       <c r="G5" t="n">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="H5" t="n">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.4992088648512203</v>
+        <v>0.5479257112789225</v>
       </c>
       <c r="F6" t="n">
         <v>84</v>
       </c>
       <c r="G6" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H6" t="n">
-        <v>90</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.5720337540498616</v>
+        <v>0.5853968889377984</v>
       </c>
       <c r="F7" t="n">
         <v>223</v>
       </c>
       <c r="G7" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H7" t="n">
-        <v>404</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.711630762226665</v>
+        <v>0.6533503886273969</v>
       </c>
       <c r="F8" t="n">
         <v>1320</v>
       </c>
       <c r="G8" t="n">
-        <v>1028</v>
+        <v>975</v>
       </c>
       <c r="H8" t="n">
-        <v>292</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.5700838202949633</v>
+        <v>0.4868874343888903</v>
       </c>
       <c r="F9" t="n">
         <v>84</v>
       </c>
       <c r="G9" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H9" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
@@ -751,16 +751,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.5604084988756405</v>
+        <v>0.5861661033260369</v>
       </c>
       <c r="F10" t="n">
         <v>223</v>
       </c>
       <c r="G10" t="n">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H10" t="n">
-        <v>387</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.7056364536234028</v>
+        <v>0.7353166257906455</v>
       </c>
       <c r="F11" t="n">
         <v>1320</v>
       </c>
       <c r="G11" t="n">
-        <v>1032</v>
+        <v>1051</v>
       </c>
       <c r="H11" t="n">
-        <v>288</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.531103572456766</v>
+        <v>0.5723924364748436</v>
       </c>
       <c r="F12" t="n">
         <v>84</v>
       </c>
       <c r="G12" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H12" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.5961697063305297</v>
+        <v>0.5957736957767823</v>
       </c>
       <c r="F13" t="n">
         <v>223</v>
       </c>
       <c r="G13" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H13" t="n">
-        <v>385</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14">
@@ -879,16 +879,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.7275266756622247</v>
+        <v>0.7230898956901891</v>
       </c>
       <c r="F14" t="n">
         <v>1320</v>
       </c>
       <c r="G14" t="n">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="H14" t="n">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15">
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.5976654025974869</v>
+        <v>0.5628794672886366</v>
       </c>
       <c r="F15" t="n">
         <v>84</v>
@@ -920,7 +920,7 @@
         <v>63</v>
       </c>
       <c r="H15" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
@@ -943,16 +943,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.6247085369179117</v>
+        <v>0.5963871362417134</v>
       </c>
       <c r="F16" t="n">
         <v>223</v>
       </c>
       <c r="G16" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H16" t="n">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17">
@@ -975,16 +975,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.7080304735936431</v>
+        <v>0.699865368346572</v>
       </c>
       <c r="F17" t="n">
         <v>1320</v>
       </c>
       <c r="G17" t="n">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="H17" t="n">
-        <v>290</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18">
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.579482201276192</v>
+        <v>0.5627794534734341</v>
       </c>
       <c r="F18" t="n">
         <v>84</v>
@@ -1016,7 +1016,7 @@
         <v>57</v>
       </c>
       <c r="H18" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19">
@@ -1039,16 +1039,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.6003693243586316</v>
+        <v>0.5882354595701185</v>
       </c>
       <c r="F19" t="n">
         <v>223</v>
       </c>
       <c r="G19" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H19" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20">
@@ -1071,16 +1071,16 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.675608740971439</v>
+        <v>0.6821736110677463</v>
       </c>
       <c r="F20" t="n">
         <v>1320</v>
       </c>
       <c r="G20" t="n">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="H20" t="n">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21">
@@ -1103,16 +1103,16 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.6114097726378774</v>
+        <v>0.613642443523887</v>
       </c>
       <c r="F21" t="n">
         <v>84</v>
       </c>
       <c r="G21" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H21" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
@@ -1135,16 +1135,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.6033874492382683</v>
+        <v>0.5748290775747088</v>
       </c>
       <c r="F22" t="n">
         <v>223</v>
       </c>
       <c r="G22" t="n">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H22" t="n">
-        <v>413</v>
+        <v>474</v>
       </c>
     </row>
     <row r="23">
@@ -1167,16 +1167,16 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.6884762622087626</v>
+        <v>0.7279027032859042</v>
       </c>
       <c r="F23" t="n">
         <v>1320</v>
       </c>
       <c r="G23" t="n">
-        <v>1017</v>
+        <v>1060</v>
       </c>
       <c r="H23" t="n">
-        <v>303</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24">
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.5661714080069774</v>
+        <v>0.6015914353425601</v>
       </c>
       <c r="F24" t="n">
         <v>84</v>
@@ -1208,7 +1208,7 @@
         <v>61</v>
       </c>
       <c r="H24" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25">
@@ -1231,16 +1231,16 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.6378189485053647</v>
+        <v>0.600526894188516</v>
       </c>
       <c r="F25" t="n">
         <v>223</v>
       </c>
       <c r="G25" t="n">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H25" t="n">
-        <v>401</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
